--- a/Consulting/2023113 Nutzwertanalyse.xlsx
+++ b/Consulting/2023113 Nutzwertanalyse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ziele und Bewertungkriterien" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="111">
   <si>
     <t>Zielbereich</t>
   </si>
@@ -348,6 +348,21 @@
   </si>
   <si>
     <t>zum anderen wegen überholter Betriebskosten.</t>
+  </si>
+  <si>
+    <t>Am Ende werden die Einträge für jedes Ziel gezählt.</t>
+  </si>
+  <si>
+    <t>Jedes Ziel erhält dann das relative Gewicht anhand seiner Nennungen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im oberen rechten Teil der Tabelle, der ockerfarben hinterlegt ist, </t>
+  </si>
+  <si>
+    <t>Das "wichtigere" Ziel wird dann hier eingetragen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wird jedes horizontale Ziel mit jedem vertikalen Ziel verglichen. </t>
   </si>
 </sst>
 </file>
@@ -561,166 +576,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1106,7 +1127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1117,167 +1140,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1286,179 +1309,244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="20"/>
-    <col min="2" max="2" width="25.7109375" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="25.7109375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="8">
         <f>COUNTIF($C$2:$G$6,C1)</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" ref="D8:G8" si="0">COUNTIF($C$2:$G$6,D1)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="22">
-        <f t="shared" ref="D8:G8" si="0">COUNTIF($C$2:$G$6,D1)</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F8" s="22">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="22">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="12">
         <f>C8/SUM($C$8:$G$8)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" ref="D9:G9" si="1">D8/SUM($C$8:$G$8)</f>
         <v>0.4</v>
       </c>
-      <c r="D9" s="26">
-        <f t="shared" ref="D9:G9" si="1">D8/SUM($C$8:$G$8)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="26">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G9" s="26">
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1467,7 +1555,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,379 +1569,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="49">
         <f>'Gewichtung Ziele'!C9</f>
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="14">
+        <f>C$2*E2</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="14">
         <v>0.4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="31">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="31">
-        <f>C$2*E2</f>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F5" si="0">C$2*E3</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="F3" s="31">
-        <f t="shared" ref="F3:F23" si="0">C$2*E3</f>
-        <v>0.16000000000000003</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="14">
         <v>0.1</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="14">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="14">
         <v>0.2</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="33" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="15">
         <f>SUM(E2:E5)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="52">
         <f>'Gewichtung Ziele'!D9</f>
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="14">
         <v>0.2</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="31">
+      <c r="F7" s="14">
+        <f>C$7*E7</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" ref="F8:F10" si="1">C$7*E8</f>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14">
         <v>0.2</v>
       </c>
-      <c r="F7" s="31">
-        <f>C$7*E7</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="31">
-        <f t="shared" ref="F8:F11" si="1">C$7*E8</f>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="31">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="14">
         <v>0.2</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F10" s="14">
         <f t="shared" si="1"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="31">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="31">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000008E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="33" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="15">
         <f>SUM(E7:E10)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="49">
         <f>'Gewichtung Ziele'!E9</f>
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14">
         <v>0.2</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="F12" s="14">
+        <f>C$12*E12</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" ref="F13:F15" si="2">C$12*E13</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="14">
         <v>0.2</v>
       </c>
-      <c r="F12" s="31">
-        <f>C$12*E12</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="31">
-        <f t="shared" ref="F13:F16" si="2">C$12*E13</f>
+      <c r="F15" s="14">
+        <f t="shared" si="2"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="31">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="31">
-        <v>0.2</v>
-      </c>
-      <c r="F15" s="31">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-    </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="33" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="15">
         <f>SUM(E12:E15)</f>
         <v>1</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="52">
         <f>'Gewichtung Ziele'!F9</f>
         <v>0.1</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="14">
         <v>0.3</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="14">
         <f>C$17*E17</f>
         <v>0.03</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="14">
         <v>0.2</v>
       </c>
-      <c r="F18" s="31">
-        <f t="shared" ref="F18:F20" si="3">C$17*E18</f>
+      <c r="F18" s="14">
+        <f t="shared" ref="F18:F19" si="3">C$17*E18</f>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="9" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="14">
         <v>0.5</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="14">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="33" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="15">
         <f>SUM(E17:E19)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="49">
         <f>'Gewichtung Ziele'!G9</f>
         <v>0.1</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="14">
         <v>0.6</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="14">
         <f>C$21*E21</f>
         <v>0.06</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="5" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="14">
         <v>0.4</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="14">
         <f>C$21*E22</f>
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="33" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="15">
         <f>SUM(E21:E22)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1923,7 +2011,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,638 +2026,638 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F2" s="38">
+      <c r="F2" s="21">
         <v>0</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="21">
         <v>1</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="21">
         <v>2</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="21">
         <v>3</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="21">
         <v>4</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="17">
         <v>0.12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="22">
         <v>1</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="22">
         <v>2</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="22">
         <v>3</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="22">
         <v>4</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="22">
         <v>5</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="17">
         <v>0.16000000000000003</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="17">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="18">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="18">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="24">
         <v>300</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="24">
         <v>500</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="24">
         <v>700</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="24">
         <v>900</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="24">
         <v>1100</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="24">
         <v>1300</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="18">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="24">
         <v>2</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="24">
         <v>4</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="24">
         <v>6</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="24">
         <v>8</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="24">
         <v>10</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="24">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="18">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="24">
         <v>1</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="24">
         <v>2</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="24">
         <v>3</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="24">
         <v>4</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="24">
         <v>5</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="22">
         <v>50</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="22">
         <v>40</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="22">
         <v>35</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="22">
         <v>30</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="22">
         <v>25</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="22">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="17">
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="22">
         <v>0</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="22">
         <v>1</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="22">
         <v>2</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="22">
         <v>3</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="22">
         <v>4</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="17">
         <v>0.1</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="22">
         <v>3.9</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="22">
         <v>3.6</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="22">
         <v>3.3</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="29">
         <v>3</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="22">
         <v>2.7</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="29">
         <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="18">
         <v>0.03</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="18">
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="K17" s="27" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="18">
         <v>0.05</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="27" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="17">
         <v>0.06</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2589,7 +2677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2612,1490 +2702,1490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="36" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="49" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="38">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="21">
         <v>0</v>
       </c>
-      <c r="S2" s="38">
+      <c r="S2" s="21">
         <v>1</v>
       </c>
-      <c r="T2" s="38">
+      <c r="T2" s="21">
         <v>2</v>
       </c>
-      <c r="U2" s="38">
+      <c r="U2" s="21">
         <v>3</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="21">
         <v>4</v>
       </c>
-      <c r="W2" s="38">
+      <c r="W2" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="37" t="s">
+      <c r="T3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="37" t="s">
+      <c r="U3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="W3" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="17">
         <v>0.12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="22">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>19</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <f>VLOOKUP(F4,'Teilnutzenwerte transponiert'!$D$6:$V$11,G4,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f>$C4*H4*100</f>
         <v>24</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="22">
         <v>5</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <v>19</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="2">
         <f>VLOOKUP(J4,'Teilnutzenwerte transponiert'!$D$6:$V$11,K4,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="2">
         <f>$C4*L4*100</f>
         <v>48</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="22">
         <v>6</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="2">
         <v>19</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="2">
         <f>VLOOKUP(N4,'Teilnutzenwerte transponiert'!$D$6:$V$11,O4,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="2">
         <f>$C4*P4*100</f>
         <v>60</v>
       </c>
-      <c r="R4" s="39">
+      <c r="R4" s="22">
         <v>1</v>
       </c>
-      <c r="S4" s="39">
+      <c r="S4" s="22">
         <v>2</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T4" s="22">
         <v>3</v>
       </c>
-      <c r="U4" s="39">
+      <c r="U4" s="22">
         <v>4</v>
       </c>
-      <c r="V4" s="39">
+      <c r="V4" s="22">
         <v>5</v>
       </c>
-      <c r="W4" s="39">
+      <c r="W4" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="17">
         <v>0.16000000000000003</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <f>G4-1</f>
         <v>18</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <f>VLOOKUP(F5,'Teilnutzenwerte transponiert'!$E$6:$V$11,G5,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I20" si="0">$C5*H5*100</f>
         <v>64.000000000000014</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <f>K4-1</f>
         <v>18</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="2">
         <f>VLOOKUP(J5,'Teilnutzenwerte transponiert'!$E$6:$V$11,K5,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="2">
         <f t="shared" ref="M5:M20" si="1">$C5*L5*100</f>
         <v>48.000000000000007</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="2">
         <f>O4-1</f>
         <v>18</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="2">
         <f>VLOOKUP(N5,'Teilnutzenwerte transponiert'!$E$6:$V$11,O5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q20" si="2">$C5*P5*100</f>
         <v>16.000000000000004</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="U5" s="40" t="s">
+      <c r="U5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="40" t="s">
+      <c r="V5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="40" t="s">
+      <c r="W5" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <f t="shared" ref="G6:G20" si="3">G5-1</f>
         <v>17</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <f>VLOOKUP(F6,'Teilnutzenwerte transponiert'!$F$6:$V$11,G6,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>16.000000000000004</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <f t="shared" ref="K6:K20" si="4">K5-1</f>
         <v>17</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <f>VLOOKUP(J6,'Teilnutzenwerte transponiert'!$F$6:$V$11,K6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="2">
         <f t="shared" si="1"/>
         <v>8.0000000000000018</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="2">
         <f t="shared" ref="O6:O20" si="5">O5-1</f>
         <v>17</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="2">
         <f>VLOOKUP(N6,'Teilnutzenwerte transponiert'!$F$6:$V$11,O6,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="2">
         <f t="shared" si="2"/>
         <v>20.000000000000004</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="R6" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="S6" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="42" t="s">
+      <c r="U6" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="V6" s="42" t="s">
+      <c r="V6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="W6" s="42" t="s">
+      <c r="W6" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="17">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <f>VLOOKUP(F7,'Teilnutzenwerte transponiert'!$G$6:$V$11,G7,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>8.0000000000000018</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="2">
         <f>VLOOKUP(J7,'Teilnutzenwerte transponiert'!$G$6:$V$11,K7,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="2">
         <f t="shared" si="1"/>
         <v>32.000000000000007</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="2">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="2">
         <f>VLOOKUP(N7,'Teilnutzenwerte transponiert'!$G$6:$V$11,O7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R7" s="43" t="s">
+      <c r="R7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="43" t="s">
+      <c r="S7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="T7" s="43" t="s">
+      <c r="T7" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="U7" s="43" t="s">
+      <c r="U7" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="V7" s="43" t="s">
+      <c r="V7" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="W7" s="43" t="s">
+      <c r="W7" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="18">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="3">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="3">
         <f>VLOOKUP(F8,'Teilnutzenwerte transponiert'!$H$6:$V$11,G8,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>16.000000000000004</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="3">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="3">
         <f>VLOOKUP(J8,'Teilnutzenwerte transponiert'!$H$6:$V$11,K8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="3">
         <f t="shared" si="1"/>
         <v>8.0000000000000018</v>
       </c>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="3">
         <f>VLOOKUP(N8,'Teilnutzenwerte transponiert'!$H$6:$V$11,O8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="3">
         <f t="shared" si="2"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="T8" s="45" t="s">
+      <c r="T8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U8" s="45" t="s">
+      <c r="U8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="45" t="s">
+      <c r="V8" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="45" t="s">
+      <c r="W8" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="18">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="24">
         <v>700</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="3">
         <f>VLOOKUP(F9,'Teilnutzenwerte transponiert'!$I$6:$V$11,G9,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>16.000000000000004</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="24">
         <v>1100</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="3">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="3">
         <f>VLOOKUP(J9,'Teilnutzenwerte transponiert'!$I$6:$V$11,K9,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="3">
         <f t="shared" si="1"/>
         <v>32.000000000000007</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="24">
         <v>1300</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="3">
         <f>VLOOKUP(N9,'Teilnutzenwerte transponiert'!$I$6:$V$11,O9,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="3">
         <f t="shared" si="2"/>
         <v>40.000000000000007</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="24">
         <v>300</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="24">
         <v>500</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="24">
         <v>700</v>
       </c>
-      <c r="U9" s="41">
+      <c r="U9" s="24">
         <v>900</v>
       </c>
-      <c r="V9" s="41">
+      <c r="V9" s="24">
         <v>1100</v>
       </c>
-      <c r="W9" s="41">
+      <c r="W9" s="24">
         <v>1300</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="18">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="24">
         <v>6</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="3">
         <f>VLOOKUP(F10,'Teilnutzenwerte transponiert'!$J$6:$V$11,G10,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>8.0000000000000018</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="24">
         <v>4</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="3">
         <f>VLOOKUP(J10,'Teilnutzenwerte transponiert'!$J$6:$V$11,K10,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="3">
         <f t="shared" si="1"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="24">
         <v>10</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="3">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="3">
         <f>VLOOKUP(N10,'Teilnutzenwerte transponiert'!$J$6:$V$11,O10,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="3">
         <f t="shared" si="2"/>
         <v>16.000000000000004</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="24">
         <v>2</v>
       </c>
-      <c r="S10" s="41">
+      <c r="S10" s="24">
         <v>4</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="24">
         <v>6</v>
       </c>
-      <c r="U10" s="41">
+      <c r="U10" s="24">
         <v>8</v>
       </c>
-      <c r="V10" s="41">
+      <c r="V10" s="24">
         <v>10</v>
       </c>
-      <c r="W10" s="41">
+      <c r="W10" s="24">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="18">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="24">
         <v>3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="3">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="3">
         <f>VLOOKUP(F11,'Teilnutzenwerte transponiert'!$K$6:$V$11,G11,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>8.0000000000000018</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="24">
         <v>4</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="3">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="3">
         <f>VLOOKUP(J11,'Teilnutzenwerte transponiert'!$K$6:$V$11,K11,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="3">
         <f t="shared" si="1"/>
         <v>12.000000000000002</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="24">
         <v>6</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="3">
         <f>VLOOKUP(N11,'Teilnutzenwerte transponiert'!$K$6:$V$11,O11,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="3">
         <f t="shared" si="2"/>
         <v>20.000000000000004</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="24">
         <v>1</v>
       </c>
-      <c r="S11" s="41">
+      <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="T11" s="41">
+      <c r="T11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="41">
+      <c r="U11" s="24">
         <v>4</v>
       </c>
-      <c r="V11" s="41">
+      <c r="V11" s="24">
         <v>5</v>
       </c>
-      <c r="W11" s="41">
+      <c r="W11" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="22">
         <v>40</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="2">
         <f>VLOOKUP(F12,'Teilnutzenwerte transponiert'!$L$6:$V$11,G12,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="22">
         <v>30</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="2">
         <f>VLOOKUP(J12,'Teilnutzenwerte transponiert'!$L$6:$V$11,K12,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="2">
         <f t="shared" si="1"/>
         <v>12.000000000000002</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="22">
         <v>20</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="2">
         <f>VLOOKUP(N12,'Teilnutzenwerte transponiert'!$L$6:$V$11,O12,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="2">
         <f t="shared" si="2"/>
         <v>20.000000000000004</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="22">
         <v>50</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="22">
         <v>40</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="22">
         <v>35</v>
       </c>
-      <c r="U12" s="39">
+      <c r="U12" s="22">
         <v>30</v>
       </c>
-      <c r="V12" s="39">
+      <c r="V12" s="22">
         <v>25</v>
       </c>
-      <c r="W12" s="39">
+      <c r="W12" s="22">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="17">
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="22">
         <v>4</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="2">
         <f>VLOOKUP(F13,'Teilnutzenwerte transponiert'!$M$6:$V$11,G13,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>8.0000000000000018</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="22">
         <v>1</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="2">
         <f>VLOOKUP(J13,'Teilnutzenwerte transponiert'!$M$6:$V$11,K13,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="2">
         <f t="shared" si="1"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="22">
         <v>3</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="2">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="2">
         <f>VLOOKUP(N13,'Teilnutzenwerte transponiert'!$M$6:$V$11,O13,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="2">
         <f t="shared" si="2"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="22">
         <v>0</v>
       </c>
-      <c r="S13" s="39">
+      <c r="S13" s="22">
         <v>1</v>
       </c>
-      <c r="T13" s="39">
+      <c r="T13" s="22">
         <v>2</v>
       </c>
-      <c r="U13" s="39">
+      <c r="U13" s="22">
         <v>3</v>
       </c>
-      <c r="V13" s="39">
+      <c r="V13" s="22">
         <v>4</v>
       </c>
-      <c r="W13" s="39">
+      <c r="W13" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="17">
         <v>0.1</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="22">
         <v>3.9</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="2">
         <f>VLOOKUP(F14,'Teilnutzenwerte transponiert'!$N$6:$V$11,G14,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="22">
         <v>2.7</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="2">
         <f>VLOOKUP(J14,'Teilnutzenwerte transponiert'!$N$6:$V$11,K14,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="22">
         <v>2.4</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="2">
         <f>VLOOKUP(N14,'Teilnutzenwerte transponiert'!$N$6:$V$11,O14,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="22">
         <v>3.9</v>
       </c>
-      <c r="S14" s="39">
+      <c r="S14" s="22">
         <v>3.6</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="22">
         <v>3.3</v>
       </c>
-      <c r="U14" s="46">
+      <c r="U14" s="29">
         <v>3</v>
       </c>
-      <c r="V14" s="39">
+      <c r="V14" s="22">
         <v>2.7</v>
       </c>
-      <c r="W14" s="46">
+      <c r="W14" s="29">
         <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="2">
         <f>VLOOKUP(F15,'Teilnutzenwerte transponiert'!$O$6:$V$11,G15,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="2">
         <f>VLOOKUP(J15,'Teilnutzenwerte transponiert'!$O$6:$V$11,K15,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="2">
         <f t="shared" si="1"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="N15" s="43" t="s">
+      <c r="N15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="2">
         <f>VLOOKUP(N15,'Teilnutzenwerte transponiert'!$O$6:$V$11,O15,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="2">
         <f t="shared" si="2"/>
         <v>16.000000000000004</v>
       </c>
-      <c r="R15" s="43" t="s">
+      <c r="R15" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="S15" s="43" t="s">
+      <c r="S15" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="T15" s="43" t="s">
+      <c r="T15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="U15" s="43" t="s">
+      <c r="U15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="V15" s="43" t="s">
+      <c r="V15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="W15" s="43" t="s">
+      <c r="W15" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="18">
         <v>0.03</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="3">
         <f>VLOOKUP(F16,'Teilnutzenwerte transponiert'!$P$6:$V$11,G16,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="3">
         <f>VLOOKUP(J16,'Teilnutzenwerte transponiert'!$P$6:$V$11,K16,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="3">
         <f>VLOOKUP(N16,'Teilnutzenwerte transponiert'!$P$6:$V$11,O16,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="S16" s="45" t="s">
+      <c r="S16" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="T16" s="45" t="s">
+      <c r="T16" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U16" s="45" t="s">
+      <c r="U16" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="V16" s="45" t="s">
+      <c r="V16" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="W16" s="45" t="s">
+      <c r="W16" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="18">
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="3">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="3">
         <f>VLOOKUP(F17,'Teilnutzenwerte transponiert'!$Q$6:$V$11,G17,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="3">
         <f>VLOOKUP(J17,'Teilnutzenwerte transponiert'!$Q$6:$V$11,K17,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="3">
         <f t="shared" si="1"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="N17" s="44" t="s">
+      <c r="N17" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="3">
         <f>VLOOKUP(N17,'Teilnutzenwerte transponiert'!$Q$6:$V$11,O17,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="3">
         <f t="shared" si="2"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="R17" s="44" t="s">
+      <c r="R17" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="S17" s="44" t="s">
+      <c r="S17" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="T17" s="44" t="s">
+      <c r="T17" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="44" t="s">
+      <c r="U17" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="V17" s="44" t="s">
+      <c r="V17" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="W17" s="44" t="s">
+      <c r="W17" s="27" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="18">
         <v>0.05</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="3">
         <f>VLOOKUP(F18,'Teilnutzenwerte transponiert'!$R$6:$V$11,G18,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>15.000000000000002</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="3">
         <f>VLOOKUP(J18,'Teilnutzenwerte transponiert'!$R$6:$V$11,K18,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="3">
         <f t="shared" si="1"/>
         <v>15.000000000000002</v>
       </c>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="3">
         <f>VLOOKUP(N18,'Teilnutzenwerte transponiert'!$R$6:$V$11,O18,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R18" s="44" t="s">
+      <c r="R18" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="S18" s="44" t="s">
+      <c r="S18" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="T18" s="44" t="s">
+      <c r="T18" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="44" t="s">
+      <c r="U18" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="V18" s="44" t="s">
+      <c r="V18" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="W18" s="44" t="s">
+      <c r="W18" s="27" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="17">
         <v>0.06</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="2">
         <f>VLOOKUP(F19,'Teilnutzenwerte transponiert'!$S$6:$V$11,G19,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="2">
         <f>VLOOKUP(J19,'Teilnutzenwerte transponiert'!$S$6:$V$11,K19,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N19" s="40" t="s">
+      <c r="N19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="2">
         <f>VLOOKUP(N19,'Teilnutzenwerte transponiert'!$S$6:$V$11,O19,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="R19" s="40" t="s">
+      <c r="R19" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="S19" s="40" t="s">
+      <c r="S19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T19" s="40" t="s">
+      <c r="T19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="U19" s="40" t="s">
+      <c r="U19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="V19" s="40" t="s">
+      <c r="V19" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="W19" s="40" t="s">
+      <c r="W19" s="23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="2">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="2">
         <f>VLOOKUP(F20,'Teilnutzenwerte transponiert'!$T$6:$V$11,G20,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>12.000000000000002</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="2">
         <f>VLOOKUP(J20,'Teilnutzenwerte transponiert'!$T$6:$V$11,K20,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="2">
         <f t="shared" si="1"/>
         <v>16.000000000000004</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="2">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="2">
         <f>VLOOKUP(N20,'Teilnutzenwerte transponiert'!$T$6:$V$11,O20,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="2">
         <f t="shared" si="2"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="R20" s="42" t="s">
+      <c r="R20" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="S20" s="42" t="s">
+      <c r="S20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="T20" s="42" t="s">
+      <c r="T20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="U20" s="42" t="s">
+      <c r="U20" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="V20" s="42" t="s">
+      <c r="V20" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="W20" s="42" t="s">
+      <c r="W20" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31">
         <f>SUM(I4:I20)</f>
         <v>222.00000000000003</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52">
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35">
         <f>SUM(M4:M20)</f>
         <v>315</v>
       </c>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48">
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31">
         <f>SUM(Q4:Q20)</f>
         <v>297</v>
       </c>
@@ -4132,646 +4222,646 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="13" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="16" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="15"/>
+      <c r="T1" s="45"/>
     </row>
     <row r="2" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="17">
         <v>0.12</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="17">
         <v>0.16000000000000003</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="17">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="18">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="18">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="18">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="18">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="17">
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="17">
         <v>0.1</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="18">
         <v>0.03</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="18">
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="18">
         <v>0.05</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="17">
         <v>0.06</v>
       </c>
-      <c r="T3" s="34">
+      <c r="T3" s="17">
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="21">
         <v>0</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="22">
         <v>1</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="24">
         <v>300</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="24">
         <v>2</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="24">
         <v>1</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="22">
         <v>50</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="22">
         <v>0</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="22">
         <v>3.9</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="Q6" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="R6" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="40" t="s">
+      <c r="S6" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="U6" s="36" t="s">
+      <c r="U6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="38">
+      <c r="V6" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38">
+      <c r="A7" s="19"/>
+      <c r="B7" s="21">
         <v>1</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="22">
         <v>2</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="24">
         <v>500</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="24">
         <v>4</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="24">
         <v>2</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="22">
         <v>40</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="22">
         <v>1</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="22">
         <v>3.6</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="O7" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="Q7" s="44" t="s">
+      <c r="Q7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="44" t="s">
+      <c r="R7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="40" t="s">
+      <c r="S7" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T7" s="42" t="s">
+      <c r="T7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="U7" s="36"/>
-      <c r="V7" s="38">
+      <c r="U7" s="19"/>
+      <c r="V7" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="38">
+      <c r="A8" s="19"/>
+      <c r="B8" s="21">
         <v>2</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="22">
         <v>3</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="24">
         <v>700</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="24">
         <v>6</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="24">
         <v>3</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="22">
         <v>35</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="22">
         <v>2</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="22">
         <v>3.3</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="44" t="s">
+      <c r="R8" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="T8" s="42" t="s">
+      <c r="T8" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="U8" s="36"/>
-      <c r="V8" s="38">
+      <c r="U8" s="19"/>
+      <c r="V8" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="38">
+      <c r="A9" s="19"/>
+      <c r="B9" s="21">
         <v>3</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="22">
         <v>4</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="24">
         <v>900</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="24">
         <v>8</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="24">
         <v>4</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="22">
         <v>30</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="22">
         <v>3</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="29">
         <v>3</v>
       </c>
-      <c r="O9" s="43" t="s">
+      <c r="O9" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="Q9" s="44" t="s">
+      <c r="Q9" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="44" t="s">
+      <c r="R9" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="S9" s="40" t="s">
+      <c r="S9" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="T9" s="42" t="s">
+      <c r="T9" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="36"/>
-      <c r="V9" s="38">
+      <c r="U9" s="19"/>
+      <c r="V9" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="38">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21">
         <v>4</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="22">
         <v>5</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="24">
         <v>1100</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="24">
         <v>10</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="24">
         <v>5</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="22">
         <v>25</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="22">
         <v>4</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="22">
         <v>2.7</v>
       </c>
-      <c r="O10" s="43" t="s">
+      <c r="O10" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="45" t="s">
+      <c r="P10" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="Q10" s="44" t="s">
+      <c r="Q10" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="44" t="s">
+      <c r="R10" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="S10" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="T10" s="42" t="s">
+      <c r="T10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="U10" s="36"/>
-      <c r="V10" s="38">
+      <c r="U10" s="19"/>
+      <c r="V10" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="38">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21">
         <v>5</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="22">
         <v>6</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="24">
         <v>1300</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="24">
         <v>12</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="24">
         <v>6</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="22">
         <v>20</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="22">
         <v>5</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="29">
         <v>2.4</v>
       </c>
-      <c r="O11" s="43" t="s">
+      <c r="O11" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="P11" s="45" t="s">
+      <c r="P11" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" s="44" t="s">
+      <c r="Q11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="R11" s="44" t="s">
+      <c r="R11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="40" t="s">
+      <c r="S11" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="U11" s="36"/>
-      <c r="V11" s="38">
+      <c r="U11" s="19"/>
+      <c r="V11" s="21">
         <v>5</v>
       </c>
     </row>
@@ -4800,14 +4890,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
